--- a/KANDIDAT_GEJALA_UNTUK_DIKURASI.xlsx
+++ b/KANDIDAT_GEJALA_UNTUK_DIKURASI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DCE15D-15C8-4927-AE04-891E4BAE3C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCC34AE-DC11-4F1B-A893-9B8D5020B502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
   <si>
     <t>Kandidat dari Mesin (Sudah di-Stem)</t>
   </si>
@@ -634,18 +634,6 @@
     <t>demam</t>
   </si>
   <si>
-    <t>pegal linu</t>
-  </si>
-  <si>
-    <t>sakit mata</t>
-  </si>
-  <si>
-    <t>sesak napas</t>
-  </si>
-  <si>
-    <t>mutal</t>
-  </si>
-  <si>
     <t>rujukan</t>
   </si>
   <si>
@@ -655,9 +643,6 @@
     <t>berdahak</t>
   </si>
   <si>
-    <t>penyakit jantung hipertensi</t>
-  </si>
-  <si>
     <t>bab bermasalah</t>
   </si>
   <si>
@@ -679,9 +664,6 @@
     <t>pegal</t>
   </si>
   <si>
-    <t>hipertensi arterial</t>
-  </si>
-  <si>
     <t>ulu hati bermasalah</t>
   </si>
   <si>
@@ -721,9 +703,6 @@
     <t>pinggang sakit</t>
   </si>
   <si>
-    <t>punggung sakit</t>
-  </si>
-  <si>
     <t>masalah tangan</t>
   </si>
   <si>
@@ -733,13 +712,16 @@
     <t>masalah telapak</t>
   </si>
   <si>
-    <t>tenggorokan</t>
-  </si>
-  <si>
     <t>tulang bermasalah</t>
   </si>
   <si>
     <t>wajah bermasalah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hipertensi </t>
+  </si>
+  <si>
+    <t>hipertensi</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B201" sqref="B2:B201"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1193,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1201,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1266,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1276,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1352,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1360,7 +1342,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1368,7 +1350,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1409,7 +1391,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1404,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1412,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1425,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1451,7 +1433,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1459,7 +1441,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1482,7 +1464,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1523,7 +1505,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1544,7 +1526,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1562,7 +1544,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1618,7 +1600,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1621,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1642,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1668,7 +1650,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1668,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1694,7 +1676,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1745,7 +1727,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1761,7 +1743,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1823,7 +1805,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1831,7 +1813,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +1869,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1912,9 +1894,6 @@
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
@@ -1967,7 +1946,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2010,7 +1989,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +2101,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -2211,7 +2190,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -2237,7 +2216,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -2270,7 +2249,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2278,7 +2257,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2286,7 +2265,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2299,7 +2278,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -2327,7 +2306,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2340,7 +2319,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2353,7 +2332,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
